--- a/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/08,25/11,08,25 Ост СЫР филиалы/дв 11,08,25 лгрсч ост сыр от Переверзева.xlsx
+++ b/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/08,25/11,08,25 Ост СЫР филиалы/дв 11,08,25 лгрсч ост сыр от Переверзева.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\11,08,25 Ост СЫР филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Останкино\2025\заказы\филиалы и опт\2025\08,25\11,08,25 Ост СЫР филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9C5EF6-097A-426D-89DE-9060B87586CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A64572C-F9F9-4C8F-9C6B-E7D92900D2AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="95">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -306,13 +306,16 @@
     <t>4421584 Спред растительно-сливочный "Сливочный вкус" 72,5% 180гр  Останкино</t>
   </si>
   <si>
-    <t>итого</t>
-  </si>
-  <si>
     <t>мин - 28шт / с 13,08,25 заказываем для ОП</t>
   </si>
   <si>
     <t>с 13,08,25 заказываем для ОП</t>
+  </si>
+  <si>
+    <t>заказ</t>
+  </si>
+  <si>
+    <t>18,08,</t>
   </si>
 </sst>
 </file>
@@ -844,7 +847,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T12" sqref="T12"/>
+      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1027,7 +1030,7 @@
         <v>16</v>
       </c>
       <c r="R3" s="24" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="S3" s="25" t="s">
         <v>17</v>
@@ -1117,7 +1120,9 @@
         <v>24</v>
       </c>
       <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+      <c r="R4" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
@@ -1702,7 +1707,7 @@
         <v>0.4</v>
       </c>
       <c r="AG9" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH9" s="2">
         <f t="shared" si="6"/>
@@ -5011,7 +5016,7 @@
         <v>0.4</v>
       </c>
       <c r="AG41" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH41" s="2">
         <f t="shared" si="6"/>
@@ -5124,7 +5129,7 @@
         <v>1.8</v>
       </c>
       <c r="AG42" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH42" s="2">
         <f t="shared" si="6"/>
